--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BC/15/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BC/15/seed4/result_data_RandomForest.xlsx
@@ -485,7 +485,7 @@
         <v>4.54</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.12059999999999</v>
+        <v>-12.0543</v>
       </c>
       <c r="D3" t="n">
         <v>-6.85</v>
@@ -584,7 +584,7 @@
         <v>-19.24</v>
       </c>
       <c r="B9" t="n">
-        <v>8.659100000000004</v>
+        <v>8.659400000000003</v>
       </c>
       <c r="C9" t="n">
         <v>-13.02</v>
@@ -621,7 +621,7 @@
         <v>6.01</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.3452</v>
+        <v>-13.2061</v>
       </c>
       <c r="D11" t="n">
         <v>-8.01</v>
@@ -737,7 +737,7 @@
         <v>-23.05</v>
       </c>
       <c r="B18" t="n">
-        <v>4.695200000000004</v>
+        <v>4.599100000000004</v>
       </c>
       <c r="C18" t="n">
         <v>-15.19</v>
@@ -771,7 +771,7 @@
         <v>-22.69</v>
       </c>
       <c r="B20" t="n">
-        <v>5.658199999999999</v>
+        <v>5.593800000000001</v>
       </c>
       <c r="C20" t="n">
         <v>-14.65</v>
